--- a/osbulkparts_system/src/main/resources/template/materialData/materialDataTemp.xlsx
+++ b/osbulkparts_system/src/main/resources/template/materialData/materialDataTemp.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>成品型号</t>
   </si>
@@ -60,6 +60,9 @@
     <t>物料俄文描述</t>
   </si>
   <si>
+    <t>单耗</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
@@ -90,7 +93,16 @@
     <t>供应商编码</t>
   </si>
   <si>
-    <t>工厂号</t>
+    <t>代理商</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
   <si>
     <t>0060303898</t>
@@ -111,6 +123,9 @@
     <t> Циндао синь Бовен (2 из хуандао) </t>
   </si>
   <si>
+    <t>100.12</t>
+  </si>
+  <si>
     <t>EA</t>
   </si>
   <si>
@@ -133,6 +148,15 @@
   </si>
   <si>
     <t>90C0</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
@@ -141,9 +165,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -166,14 +190,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +211,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -195,6 +221,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -209,23 +257,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,78 +311,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,6 +325,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -336,181 +360,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,11 +576,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,17 +617,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,35 +652,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +681,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +693,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1149,19 +1173,23 @@
     <col min="5" max="5" width="33.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.8333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83333333333333" style="1"/>
-    <col min="11" max="11" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83333333333333" style="1"/>
-    <col min="13" max="13" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83333333333333" style="1"/>
-    <col min="16" max="16" width="11.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83333333333333" style="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83333333333333" style="1"/>
+    <col min="12" max="12" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83333333333333" style="1"/>
+    <col min="14" max="14" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83333333333333" style="1"/>
+    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83333333333333" style="1"/>
+    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,61 +1244,85 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:18">
+    <row r="2" ht="16.5" spans="1:22">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/osbulkparts_system/src/main/resources/template/materialData/materialDataTemp.xlsx
+++ b/osbulkparts_system/src/main/resources/template/materialData/materialDataTemp.xlsx
@@ -7,8 +7,11 @@
     <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$2</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -16,10 +19,84 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>wei xin</author>
     <author>session</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wei xin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>采购价格</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>采购总价</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>代理费率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -27,8 +104,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>范例：
-请参考本条数据样式作入数据并导入。</t>
+          <t>第一行为实例数据，请以第一行为复制范本作成导入数据，导入时，第一行不导入。</t>
         </r>
       </text>
     </comment>
@@ -37,18 +113,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>成品型号</t>
   </si>
   <si>
-    <t>子件型号</t>
-  </si>
-  <si>
-    <t>物料CKD号</t>
-  </si>
-  <si>
-    <t>物料类别</t>
+    <t>成品描述</t>
+  </si>
+  <si>
+    <t>物料专用号</t>
+  </si>
+  <si>
+    <t>渠道</t>
   </si>
   <si>
     <t>物料中文描述</t>
@@ -75,13 +151,16 @@
     <t>换算后单位</t>
   </si>
   <si>
+    <t>最小包装数量</t>
+  </si>
+  <si>
     <t>含税单价</t>
   </si>
   <si>
     <t>不含税单价</t>
   </si>
   <si>
-    <t>最小包装数量</t>
+    <t>税率</t>
   </si>
   <si>
     <t>代理费率</t>
@@ -93,7 +172,7 @@
     <t>供应商编码</t>
   </si>
   <si>
-    <t>代理商</t>
+    <t>配额</t>
   </si>
   <si>
     <t>长</t>
@@ -105,58 +184,49 @@
     <t>高</t>
   </si>
   <si>
-    <t>0060303898</t>
-  </si>
-  <si>
-    <t>0060303898HNR</t>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>BB09R3EAC</t>
+  </si>
+  <si>
+    <t>0060510745</t>
+  </si>
+  <si>
+    <t>1CKD</t>
+  </si>
+  <si>
+    <t>商标-N/A</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>RMB</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>HRF-342/382Frz黑色玻璃（连衣裙）</t>
-  </si>
-  <si>
-    <t>HRF-342/382FrzBlackGlass(Dress)</t>
-  </si>
-  <si>
-    <t> Циндао синь Бовен (2 из хуандао) </t>
-  </si>
-  <si>
-    <t>100.12</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>RMB</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.017</t>
   </si>
   <si>
     <t>CHN</t>
   </si>
   <si>
-    <t>V12981</t>
-  </si>
-  <si>
-    <t>90C0</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>V12930</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -164,24 +234,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,15 +254,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,31 +275,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +311,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -258,86 +390,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -345,7 +429,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,37 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,145 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +673,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -587,17 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,32 +752,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -658,186 +769,186 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,171 +1270,172 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83333333333333" style="1"/>
-    <col min="5" max="5" width="33.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83333333333333" style="1"/>
-    <col min="12" max="12" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83333333333333" style="1"/>
-    <col min="14" max="14" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83333333333333" style="1"/>
-    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83333333333333" style="1"/>
-    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83333333333333" style="1"/>
+    <col min="1" max="2" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.8333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.1666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5.66666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="15" max="16" width="11.1666666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.5" style="2" customWidth="1"/>
+    <col min="19" max="20" width="11.1666666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.1666666666667" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:24">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:22">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" ht="16.5" spans="1:24">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/osbulkparts_system/src/main/resources/template/materialData/materialDataTemp.xlsx
+++ b/osbulkparts_system/src/main/resources/template/materialData/materialDataTemp.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>成品型号</t>
   </si>
@@ -175,6 +175,9 @@
     <t>配额</t>
   </si>
   <si>
+    <t>损耗率</t>
+  </si>
+  <si>
     <t>长</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
   </si>
   <si>
     <t>0.7</t>
+  </si>
+  <si>
+    <t>0.21</t>
   </si>
 </sst>
 </file>
@@ -234,8 +240,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -254,13 +260,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -269,33 +334,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -308,99 +407,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,187 +456,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,6 +678,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -683,54 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,11 +719,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,153 +749,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1293,13 +1299,13 @@
     <col min="15" max="16" width="11.1666666666667" style="2" customWidth="1"/>
     <col min="17" max="17" width="11.8333333333333" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.5" style="2" customWidth="1"/>
-    <col min="19" max="20" width="11.1666666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.1666666666667" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.83333333333333" style="2"/>
+    <col min="19" max="21" width="11.1666666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.1666666666667" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" s="1" customFormat="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,70 +1378,76 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:24">
+    <row r="2" ht="16.5" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
